--- a/dashboard_loader/disability_social_participation_uploader/disability_social_participation.xlsx
+++ b/dashboard_loader/disability_social_participation_uploader/disability_social_participation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">Participation in social and community activities</t>
   </si>
@@ -107,10 +107,16 @@
     <t xml:space="preserve">Profound or severe core activity limitation refers to always or sometimes needing assistance with one or more of the core activities. Core activities comprise communication, mobility and self-care.</t>
   </si>
   <si>
-    <t xml:space="preserve">Source from: ABS, Survey of Disability, Ageing and Carers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data for the Northern Territory should be used with care as the Survey of Disability, Ageing and Carers does not include people living in very remote areas or people living in discrete Indigenous communities, which affects the comparability of the Northern Territory results.  In addition the 2012 survey was the first time that discrete Indigenous communities were excluded from the survey, resulting in around 10% of Northern Territory households that were previously included being excluded.</t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS, Survey of Disability, Ageing and Carers, various years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Families, Housing, Community Services and Indigenous Affairs (FaCHSIA), 2009, Shut out: The experience of People with disabilities and their Families in Australia.</t>
   </si>
 </sst>
 </file>
@@ -122,11 +128,12 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
   </numFmts>
-  <fonts count="8">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="18">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,6 +149,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -163,14 +251,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,17 +261,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -207,7 +346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,66 +370,194 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -301,13 +568,13 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B10 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,15 +960,15 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="97.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,23 +1034,25 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
